--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -627,27 +627,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/artfynd/A 37062-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/artfynd/A 37062-2021.xlsx", "A 37062-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/kartor/A 37062-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/kartor/A 37062-2021.png", "A 37062-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomål/A 37062-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomål/A 37062-2021.docx", "A 37062-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomålsmail/A 37062-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomålsmail/A 37062-2021.docx", "A 37062-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsyn/A 37062-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsyn/A 37062-2021.docx", "A 37062-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsynsmail/A 37062-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsynsmail/A 37062-2021.docx", "A 37062-2021")</f>
         <v/>
       </c>
     </row>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -715,27 +715,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/artfynd/A 17273-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/artfynd/A 17273-2020.xlsx", "A 17273-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/kartor/A 17273-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/kartor/A 17273-2020.png", "A 17273-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomål/A 17273-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomål/A 17273-2020.docx", "A 17273-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomålsmail/A 17273-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomålsmail/A 17273-2020.docx", "A 17273-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsyn/A 17273-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsyn/A 17273-2020.docx", "A 17273-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsynsmail/A 17273-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsynsmail/A 17273-2020.docx", "A 17273-2020")</f>
         <v/>
       </c>
     </row>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,27 +802,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/artfynd/A 27619-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/artfynd/A 27619-2022.xlsx", "A 27619-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/kartor/A 27619-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/kartor/A 27619-2022.png", "A 27619-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomål/A 27619-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomål/A 27619-2022.docx", "A 27619-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomålsmail/A 27619-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomålsmail/A 27619-2022.docx", "A 27619-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsyn/A 27619-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsyn/A 27619-2022.docx", "A 27619-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsynsmail/A 27619-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsynsmail/A 27619-2022.docx", "A 27619-2022")</f>
         <v/>
       </c>
     </row>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,27 +893,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/artfynd/A 39507-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/artfynd/A 39507-2022.xlsx", "A 39507-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/kartor/A 39507-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/kartor/A 39507-2022.png", "A 39507-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomål/A 39507-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomål/A 39507-2022.docx", "A 39507-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomålsmail/A 39507-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomålsmail/A 39507-2022.docx", "A 39507-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsyn/A 39507-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsyn/A 39507-2022.docx", "A 39507-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsynsmail/A 39507-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsynsmail/A 39507-2022.docx", "A 39507-2022")</f>
         <v/>
       </c>
     </row>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -978,31 +978,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/artfynd/A 71531-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/artfynd/A 71531-2018.xlsx", "A 71531-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/kartor/A 71531-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/kartor/A 71531-2018.png", "A 71531-2018")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/knärot/A 71531-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/knärot/A 71531-2018.png", "A 71531-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomål/A 71531-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomål/A 71531-2018.docx", "A 71531-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomålsmail/A 71531-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomålsmail/A 71531-2018.docx", "A 71531-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsyn/A 71531-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsyn/A 71531-2018.docx", "A 71531-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsynsmail/A 71531-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsynsmail/A 71531-2018.docx", "A 71531-2018")</f>
         <v/>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,27 +1067,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/artfynd/A 73863-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/artfynd/A 73863-2021.xlsx", "A 73863-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/kartor/A 73863-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/kartor/A 73863-2021.png", "A 73863-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomål/A 73863-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomål/A 73863-2021.docx", "A 73863-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomålsmail/A 73863-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomålsmail/A 73863-2021.docx", "A 73863-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsyn/A 73863-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsyn/A 73863-2021.docx", "A 73863-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsynsmail/A 73863-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsynsmail/A 73863-2021.docx", "A 73863-2021")</f>
         <v/>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1157,27 +1157,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/artfynd/A 39508-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/artfynd/A 39508-2022.xlsx", "A 39508-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/kartor/A 39508-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/kartor/A 39508-2022.png", "A 39508-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomål/A 39508-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomål/A 39508-2022.docx", "A 39508-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomålsmail/A 39508-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/klagomålsmail/A 39508-2022.docx", "A 39508-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsyn/A 39508-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsyn/A 39508-2022.docx", "A 39508-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsynsmail/A 39508-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARKARYD/tillsynsmail/A 39508-2022.docx", "A 39508-2022")</f>
         <v/>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y246"/>
+  <dimension ref="A1:Y247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
       </c>
       <c r="R245" s="2" t="inlineStr"/>
     </row>
-    <row r="246">
+    <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
           <t>A 37884-2023</t>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14851,6 +14851,63 @@
         <v>0</v>
       </c>
       <c r="R246" s="2" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>A 46122-2023</t>
+        </is>
+      </c>
+      <c r="B247" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C247" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>MARKARYD</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>45196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>45196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>45196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -572,7 +572,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43332</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>43335</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43425</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43430</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43438</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43438</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43438</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43454</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43467</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43486</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43486</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43486</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43564</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43586</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43598</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43609</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43609</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43643</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43658</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43696</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43714</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43727</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43733</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43767</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43788</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43837</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43847</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43880</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>43908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>43914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43917</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>43928</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>43948</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43965</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43966</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43976</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43991</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43991</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>44004</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44011</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44056</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44094</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44095</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44109</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44130</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44137</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44144</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44147</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44155</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44159</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44181</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44193</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44193</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44193</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44200</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44231</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44258</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44283</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44303</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44303</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>44343</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44378</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44409</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44409</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44418</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44431</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44434</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44446</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44460</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>44557</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44559</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44565</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44581</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44582</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44601</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44601</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44601</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44638</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44683</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44697</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>44700</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44700</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44700</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44701</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44788</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44788</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44835</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44837</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44865</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44879</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44935</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44956</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44956</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44956</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44977</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44984</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44984</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44992</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44995</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44999</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45000</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45001</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45026</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45042</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>45077</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45080</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45080</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45085</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45090</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45097</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45107</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45107</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45117</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45141</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45141</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45141</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>45196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
